--- a/dados 01/presencas_tabela.xlsx
+++ b/dados 01/presencas_tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\dados 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F370A9D-E36B-4942-8DF0-27F87FCC58EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA3A233-7A9A-4286-8C95-5F94572A1230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,59 +41,59 @@
     <t>nome_comunidade</t>
   </si>
   <si>
-    <t>Participantes do Sexo Masculino &lt; 24 anos</t>
-  </si>
-  <si>
-    <t>Participantes do Sexo Masculino &gt; 24  anos</t>
-  </si>
-  <si>
-    <t>Participantes do sexo Feminino &lt; 24 anos</t>
-  </si>
-  <si>
-    <t>Participantes do sexo Feminino &gt; 24 anos</t>
-  </si>
-  <si>
-    <t>Total &lt; 24 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total  &gt; 24 anos
+    <t xml:space="preserve">regiao </t>
+  </si>
+  <si>
+    <t>Nrsessao</t>
+  </si>
+  <si>
+    <t>Cabo Delgado</t>
+  </si>
+  <si>
+    <t>Mirate</t>
+  </si>
+  <si>
+    <t>Nropa</t>
+  </si>
+  <si>
+    <t>Mondlane</t>
+  </si>
+  <si>
+    <t>Nanito</t>
+  </si>
+  <si>
+    <t>Chipembe</t>
+  </si>
+  <si>
+    <t>Anguesse</t>
+  </si>
+  <si>
+    <t>Janjawe</t>
+  </si>
+  <si>
+    <t>Nuicuita</t>
+  </si>
+  <si>
+    <t>Meloco</t>
+  </si>
+  <si>
+    <t>Participantes do Sexo Masculino dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t>Participantes do Sexo Masculino dos 25 - 35 anos</t>
+  </si>
+  <si>
+    <t>Participantes do sexo Feminino dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t>Participantes do sexo Feminino  dos 25 - 35 anos</t>
+  </si>
+  <si>
+    <t>Total dos 18 - 24 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total   dos 25 - 35 anos
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">regiao </t>
-  </si>
-  <si>
-    <t>Nrsessao</t>
-  </si>
-  <si>
-    <t>Cabo Delgado</t>
-  </si>
-  <si>
-    <t>Mirate</t>
-  </si>
-  <si>
-    <t>Nropa</t>
-  </si>
-  <si>
-    <t>Mondlane</t>
-  </si>
-  <si>
-    <t>Nanito</t>
-  </si>
-  <si>
-    <t>Chipembe</t>
-  </si>
-  <si>
-    <t>Anguesse</t>
-  </si>
-  <si>
-    <t>Janjawe</t>
-  </si>
-  <si>
-    <t>Nuicuita</t>
-  </si>
-  <si>
-    <t>Meloco</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,9 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -498,7 +495,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -515,31 +512,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
@@ -547,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -578,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>14</v>
@@ -609,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>12</v>
@@ -640,10 +637,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>14</v>
@@ -671,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>12</v>
@@ -702,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>14</v>
@@ -733,10 +730,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -764,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -795,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
